--- a/data/data barang.xlsx
+++ b/data/data barang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\Python Scripts\tutorial django\storeapp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348F46A5-994E-4282-A3D5-751ADD57A6E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9D0A33-353D-4A4D-BB16-1CC942352F4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{044A9700-3246-462C-A018-64EF2F4F654B}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C2">
         <v>10000</v>
